--- a/Nav_System/Nav_System/test.xlsx
+++ b/Nav_System/Nav_System/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:DJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,264 @@
       <c r="AB1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -459,129 +717,247 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>SS3</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>SS3</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>SS4</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -616,6 +992,92 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,11 +1167,409 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -812,6 +1672,92 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Nav_System/Nav_System/test.xlsx
+++ b/Nav_System/Nav_System/test.xlsx
@@ -459,42 +459,42 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>SS5</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -539,42 +539,42 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SS5</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -625,81 +625,89 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>SS1</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -720,89 +728,81 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>

--- a/Nav_System/Nav_System/test.xlsx
+++ b/Nav_System/Nav_System/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:BS5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,135 @@
       <c r="AB1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -459,129 +588,192 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -616,6 +808,49 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -718,6 +953,201 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -728,90 +1158,153 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>SS1</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>SS1</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Nav_System/Nav_System/test.xlsx
+++ b/Nav_System/Nav_System/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,84 +499,6 @@
       <c r="AS1" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -588,150 +510,154 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SS5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>S8</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -743,37 +669,7 @@
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -825,32 +721,6 @@
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -957,195 +827,65 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>S12</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>S13</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>S16</t>
         </is>
       </c>
     </row>
@@ -1158,104 +898,84 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>SS1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -1279,32 +999,6 @@
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Nav_System/Nav_System/test.xlsx
+++ b/Nav_System/Nav_System/test.xlsx
@@ -1,55 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Master_Study\Nav\1102\Nav_System\Nav_System\Nav_System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,43 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -388,76 +353,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>work1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>SS5</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>SS3</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>SS3</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>SS4</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>work2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IH1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>IH2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SS1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>